--- a/database/candidates.xlsx
+++ b/database/candidates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="15300" windowHeight="4875"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t>Abdillah Muharram</t>
   </si>
@@ -52,7 +52,10 @@
     <t>Aditya Aprilla</t>
   </si>
   <si>
-    <t xml:space="preserve">Afrinaldi </t>
+    <t xml:space="preserve">Adri Priyanto </t>
+  </si>
+  <si>
+    <t>Afrinaldi</t>
   </si>
   <si>
     <t>Agung Setia Budi</t>
@@ -67,6 +70,9 @@
     <t>Aju Listia Dewi</t>
   </si>
   <si>
+    <t>Al Amin</t>
+  </si>
+  <si>
     <t>Al Hafiz Hikmat</t>
   </si>
   <si>
@@ -76,10 +82,13 @@
     <t>Ali Busmar</t>
   </si>
   <si>
+    <t>Ali Jaman</t>
+  </si>
+  <si>
     <t>Alissa Miranda</t>
   </si>
   <si>
-    <t>Alma Bonita Hokianetta</t>
+    <t>Alma Bonita Hokia Netta</t>
   </si>
   <si>
     <t>Alvio Dwi Agustian</t>
@@ -139,6 +148,9 @@
     <t>Annisaa Fajar Aditya</t>
   </si>
   <si>
+    <t>Anugrah Yoga Pratama</t>
+  </si>
+  <si>
     <t>Arhamny</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
     <t>Aura Tiffany Mulia</t>
   </si>
   <si>
+    <t>Ayu Auliya</t>
+  </si>
+  <si>
     <t>Ayu Sulistyaningsih</t>
   </si>
   <si>
@@ -199,7 +214,7 @@
     <t>Azzura Chaerunnisa</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayu Putra </t>
+    <t>Bayu Putra</t>
   </si>
   <si>
     <t xml:space="preserve">Bayu Putra Utama </t>
@@ -220,6 +235,9 @@
     <t>Dahlia Segeryanti</t>
   </si>
   <si>
+    <t xml:space="preserve">Darmi Dahlia </t>
+  </si>
+  <si>
     <t>Darnita Darwis</t>
   </si>
   <si>
@@ -247,6 +265,12 @@
     <t>Desi Novitasari</t>
   </si>
   <si>
+    <t>Desmawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dessri Rezeki Br Tarigan </t>
+  </si>
+  <si>
     <t>Dessy Nia Cynthia</t>
   </si>
   <si>
@@ -271,6 +295,9 @@
     <t>Dian Eko Wahyudi</t>
   </si>
   <si>
+    <t>Dian Kusuma Astuti</t>
+  </si>
+  <si>
     <t>Dico Ardilla Pranenda</t>
   </si>
   <si>
@@ -295,9 +322,18 @@
     <t>Ditha Friyani</t>
   </si>
   <si>
+    <t xml:space="preserve">Diyah Agus Suprapti </t>
+  </si>
+  <si>
     <t>Doni Sampurna</t>
   </si>
   <si>
+    <t xml:space="preserve">Donna Rita </t>
+  </si>
+  <si>
+    <t>Dumasari Surono Pakpahan</t>
+  </si>
+  <si>
     <t>Dwi Putri Yuliani</t>
   </si>
   <si>
@@ -316,15 +352,24 @@
     <t>Eka Mustika</t>
   </si>
   <si>
+    <t>Eka Novriadi Saputra</t>
+  </si>
+  <si>
     <t>Eka Susilawati</t>
   </si>
   <si>
     <t xml:space="preserve">Eka Susilawati </t>
   </si>
   <si>
+    <t>Elma</t>
+  </si>
+  <si>
     <t>Empi Zulvarino</t>
   </si>
   <si>
+    <t xml:space="preserve">Erlina Flora Manurung </t>
+  </si>
+  <si>
     <t>Erwin Nurlianto</t>
   </si>
   <si>
@@ -337,7 +382,7 @@
     <t>Evy Damayanti</t>
   </si>
   <si>
-    <t>Fadli Yudhira Putra</t>
+    <t>Fadli Yudhira</t>
   </si>
   <si>
     <t>Fahrul Rozi</t>
@@ -385,6 +430,9 @@
     <t>Fitrisa Yuni Santika</t>
   </si>
   <si>
+    <t>Framita Desfika Sari</t>
+  </si>
+  <si>
     <t>Franita Roza</t>
   </si>
   <si>
@@ -400,7 +448,7 @@
     <t>Habieb Bayu Wicaksono</t>
   </si>
   <si>
-    <t>Hadrah</t>
+    <t xml:space="preserve">Hadrah </t>
   </si>
   <si>
     <t>Hafis Fadillah</t>
@@ -445,9 +493,15 @@
     <t>Herlinda Novita</t>
   </si>
   <si>
+    <t>Hermansyah</t>
+  </si>
+  <si>
     <t>Heru Lesmanda</t>
   </si>
   <si>
+    <t>Hetty Mariana Tanjung</t>
+  </si>
+  <si>
     <t>Husni Fitri Adi Harahap</t>
   </si>
   <si>
@@ -463,6 +517,9 @@
     <t>Ibrahim Risjad</t>
   </si>
   <si>
+    <t>Ibrahim. S. H</t>
+  </si>
+  <si>
     <t>Ibriza Tisyrinul Assegaf</t>
   </si>
   <si>
@@ -490,7 +547,7 @@
     <t>Imam Dermawan</t>
   </si>
   <si>
-    <t>Iman Miftahul Hoer</t>
+    <t xml:space="preserve">Iman Miftahul Hoer </t>
   </si>
   <si>
     <t>Imaniar Putri Raesa</t>
@@ -499,7 +556,10 @@
     <t>Indah Mudasih</t>
   </si>
   <si>
-    <t>Indra Susanty</t>
+    <t>Indra Susanti</t>
+  </si>
+  <si>
+    <t>Indra Wahyudi</t>
   </si>
   <si>
     <t>Indrawaty</t>
@@ -517,9 +577,21 @@
     <t>Irfan Supratman</t>
   </si>
   <si>
+    <t>Irham Nasution</t>
+  </si>
+  <si>
+    <t>Irvan</t>
+  </si>
+  <si>
+    <t>Irwansyah</t>
+  </si>
+  <si>
     <t>Ivan Hadiananta</t>
   </si>
   <si>
+    <t>Jaka</t>
+  </si>
+  <si>
     <t>Jefri Rahmad Hidayat</t>
   </si>
   <si>
@@ -529,7 +601,10 @@
     <t>Juliati</t>
   </si>
   <si>
-    <t>Jumadil Wirahadi</t>
+    <t>Jumadil Wira Hadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumar Diana </t>
   </si>
   <si>
     <t>Juniadi Takim</t>
@@ -538,6 +613,9 @@
     <t>Karmila Safitri</t>
   </si>
   <si>
+    <t>Kasyfil Aziz Edra</t>
+  </si>
+  <si>
     <t>Kenny Tri Pradiptha Panjaitan</t>
   </si>
   <si>
@@ -559,6 +637,9 @@
     <t>Lina Purwanti Septiani Novaliza</t>
   </si>
   <si>
+    <t xml:space="preserve">Linda Martalena </t>
+  </si>
+  <si>
     <t>Liza Fitria</t>
   </si>
   <si>
@@ -568,6 +649,9 @@
     <t>M Alvin Rizky</t>
   </si>
   <si>
+    <t>M Rezki Prayogi</t>
+  </si>
+  <si>
     <t>M Rifqi Romadhona</t>
   </si>
   <si>
@@ -580,15 +664,15 @@
     <t>M. Ivan Ryandy Putra</t>
   </si>
   <si>
-    <t>M. Prayoga Dermawan</t>
-  </si>
-  <si>
     <t>M.Andika Pramono</t>
   </si>
   <si>
     <t>M.Nadzif Aznaldo</t>
   </si>
   <si>
+    <t>M.Prayoga Dermawan</t>
+  </si>
+  <si>
     <t>M.Rizki Irawan</t>
   </si>
   <si>
@@ -604,24 +688,36 @@
     <t>Mardiansyah Fathoni</t>
   </si>
   <si>
+    <t>Mardiatul Janah</t>
+  </si>
+  <si>
     <t>Mariaty Hutabarat</t>
   </si>
   <si>
+    <t>Mario Putra Ananda</t>
+  </si>
+  <si>
     <t>Marlinda</t>
   </si>
   <si>
+    <t>Maryati</t>
+  </si>
+  <si>
     <t>Masitoh</t>
   </si>
   <si>
     <t>Maulia Jaya</t>
   </si>
   <si>
-    <t>Maulida Nurrahma</t>
+    <t xml:space="preserve">Maulida Nurrahma </t>
   </si>
   <si>
     <t>Maulidania Mediawati Cynthia</t>
   </si>
   <si>
+    <t>Maysaroh</t>
+  </si>
+  <si>
     <t>Mazna Leni M</t>
   </si>
   <si>
@@ -667,7 +763,7 @@
     <t>Muhammad Firmansyah</t>
   </si>
   <si>
-    <t>Muhammad Hanif Rizki</t>
+    <t xml:space="preserve">Muhammad Hanif Rizki </t>
   </si>
   <si>
     <t>Muhammad Mirza Abdillah</t>
@@ -676,18 +772,21 @@
     <t>Muhammad Muzakki</t>
   </si>
   <si>
-    <t>Muhammad Nur Anshari</t>
+    <t xml:space="preserve">Muhammad Nur Anshari </t>
   </si>
   <si>
     <t>Muhammad Putra</t>
   </si>
   <si>
-    <t>Muhammad Rais</t>
+    <t xml:space="preserve">Muhammad Rais </t>
   </si>
   <si>
     <t>Muhammad Rayhan Pratama</t>
   </si>
   <si>
+    <t xml:space="preserve">Muhammad Rido </t>
+  </si>
+  <si>
     <t>Muhammad Rizki Fauji</t>
   </si>
   <si>
@@ -724,7 +823,7 @@
     <t>Nahdayatul Cintia</t>
   </si>
   <si>
-    <t>Nanda Syahputra</t>
+    <t>Nanda Syah Putra</t>
   </si>
   <si>
     <t>Nandayu Ulya. P</t>
@@ -745,6 +844,9 @@
     <t>Nia Wati</t>
   </si>
   <si>
+    <t>Ninda Permata Riau</t>
+  </si>
+  <si>
     <t>Nini Astuti</t>
   </si>
   <si>
@@ -760,6 +862,9 @@
     <t>Novilia Rischi</t>
   </si>
   <si>
+    <t>Novri Yani</t>
+  </si>
+  <si>
     <t>Nur Abdul Rahman</t>
   </si>
   <si>
@@ -787,15 +892,24 @@
     <t>Nurul Annisa</t>
   </si>
   <si>
+    <t>Nurul Diyunisa</t>
+  </si>
+  <si>
     <t>Nurul Hafiza</t>
   </si>
   <si>
     <t>Olgi Risnanda</t>
   </si>
   <si>
+    <t xml:space="preserve">Osvaldo Elia Sibarani </t>
+  </si>
+  <si>
     <t>Oyong Paringki</t>
   </si>
   <si>
+    <t>Pindo Evans Manuel Damanik</t>
+  </si>
+  <si>
     <t>Pitri Erwiyani</t>
   </si>
   <si>
@@ -835,7 +949,7 @@
     <t>Ramadhan Putra</t>
   </si>
   <si>
-    <t>Randi Septa Putrawan</t>
+    <t>Randi Septa P</t>
   </si>
   <si>
     <t>Ratna Delpita Sari</t>
@@ -868,6 +982,15 @@
     <t>Reni Novita</t>
   </si>
   <si>
+    <t xml:space="preserve">Reni Yulita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resi Risanti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reski Amelia </t>
+  </si>
+  <si>
     <t>Reski Pratiwi</t>
   </si>
   <si>
@@ -889,7 +1012,10 @@
     <t>Rezi Mulyadi</t>
   </si>
   <si>
-    <t>Riana Sari</t>
+    <t>Rezki Wahyuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riana Sari </t>
   </si>
   <si>
     <t>Rico Septiadi</t>
@@ -937,6 +1063,9 @@
     <t>Rita Nurun Nikmah</t>
   </si>
   <si>
+    <t xml:space="preserve">Rita Raudawati </t>
+  </si>
+  <si>
     <t>Rita Susanti</t>
   </si>
   <si>
@@ -958,6 +1087,9 @@
     <t>Rossy Thanier</t>
   </si>
   <si>
+    <t>Roy Chandra Pardede</t>
+  </si>
+  <si>
     <t xml:space="preserve">Royman Wesley Hutauruk </t>
   </si>
   <si>
@@ -1003,7 +1135,7 @@
     <t>Siti Khairiyah Binti Adlas</t>
   </si>
   <si>
-    <t>Sofia Kristianti Dewi</t>
+    <t xml:space="preserve">Sofia Kristianti Dewi </t>
   </si>
   <si>
     <t>Sopania Putri</t>
@@ -1021,6 +1153,9 @@
     <t>Sri Wahyuni</t>
   </si>
   <si>
+    <t>Sufarto Hadi</t>
+  </si>
+  <si>
     <t>Sugeng Nopriadi</t>
   </si>
   <si>
@@ -1057,25 +1192,37 @@
     <t>Syifa Fauziah</t>
   </si>
   <si>
+    <t>T Aldo Rohis</t>
+  </si>
+  <si>
     <t>T. Aisyah Asyari</t>
   </si>
   <si>
+    <t>Tabah Anugrah Rahayu</t>
+  </si>
+  <si>
     <t>Tamara Anissa</t>
   </si>
   <si>
     <t>Taufik</t>
   </si>
   <si>
+    <t xml:space="preserve">Tengku Rafiqah Zahirah </t>
+  </si>
+  <si>
     <t>Tety Juliati</t>
   </si>
   <si>
     <t>Theo Teguh Pahlawan Roberto</t>
   </si>
   <si>
+    <t xml:space="preserve">Titik Ermawati </t>
+  </si>
+  <si>
     <t>Togu Evando Situmorang</t>
   </si>
   <si>
-    <t>Tri Wijaya P</t>
+    <t xml:space="preserve">Tri Wijaya P </t>
   </si>
   <si>
     <t>Tri Wulandari</t>
@@ -1093,7 +1240,7 @@
     <t>Vieny Meiliani</t>
   </si>
   <si>
-    <t>Vikra Maizi Hendra</t>
+    <t xml:space="preserve">Vikra Maizi Hendra </t>
   </si>
   <si>
     <t>Vina Ade Gusti Ayu</t>
@@ -1108,6 +1255,9 @@
     <t>Vira Aprilliana</t>
   </si>
   <si>
+    <t>Vitria Ningsih</t>
+  </si>
+  <si>
     <t>Vivin Rindayani</t>
   </si>
   <si>
@@ -1132,6 +1282,9 @@
     <t>Wiwik Widiawati</t>
   </si>
   <si>
+    <t>Yandrizon</t>
+  </si>
+  <si>
     <t>Yefitia Telaumbanua</t>
   </si>
   <si>
@@ -1150,15 +1303,27 @@
     <t>Yenni Permata Sari</t>
   </si>
   <si>
+    <t>Yessy Uldiansyah</t>
+  </si>
+  <si>
     <t>Yetik Sri Lestari</t>
   </si>
   <si>
-    <t>Yoga Yusfarino</t>
+    <t>Yoga  Yusfarino</t>
+  </si>
+  <si>
+    <t>Yoggi Afriandi Putra</t>
+  </si>
+  <si>
+    <t>Yopa Surayati</t>
   </si>
   <si>
     <t>Yose Andre Parera</t>
   </si>
   <si>
+    <t>Yossi Indrawati</t>
+  </si>
+  <si>
     <t>Yuli Yanti</t>
   </si>
   <si>
@@ -1172,6 +1337,9 @@
   </si>
   <si>
     <t>Yusaka Saputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yustika </t>
   </si>
   <si>
     <t>Yuyun</t>
@@ -1194,10 +1362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1207,63 +1375,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1278,9 +1391,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1292,38 +1420,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,7 +1453,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,8 +1504,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,7 +1535,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,13 +1595,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,85 +1685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,31 +1703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,31 +1715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,24 +1726,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1590,6 +1740,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,6 +1780,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1635,17 +1809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,148 +1829,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2156,15 +2324,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A1" sqref="A1:A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="5" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2195,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -2212,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -2229,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2240,7 +2409,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2297,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2314,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -2376,16 +2545,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2393,16 +2562,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2410,16 +2579,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2427,13 +2596,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -2444,13 +2613,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2464,10 +2633,10 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -2478,7 +2647,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2495,7 +2664,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2504,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2515,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -2529,16 +2698,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2546,16 +2715,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2566,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2580,16 +2749,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2600,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2614,13 +2783,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -2631,7 +2800,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2648,16 +2817,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2665,16 +2834,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2685,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2699,16 +2868,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2716,16 +2885,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2736,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2750,13 +2919,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2773,10 +2942,10 @@
         <v>4</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2801,13 +2970,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -2835,13 +3004,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2852,16 +3021,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2869,7 +3038,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -2878,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2886,7 +3055,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -2895,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2906,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2929,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2946,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2957,13 +3126,13 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2974,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -2988,16 +3157,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3005,13 +3174,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -3022,13 +3191,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -3039,13 +3208,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -3056,10 +3225,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3073,10 +3242,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3090,13 +3259,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -3107,16 +3276,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3124,13 +3293,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -3144,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3158,16 +3327,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3175,16 +3344,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3198,7 +3367,7 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -3209,16 +3378,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3232,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -3243,16 +3412,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3260,13 +3429,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <v>5</v>
@@ -3277,16 +3446,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3311,16 +3480,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3328,16 +3497,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3345,16 +3514,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3362,16 +3531,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3382,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3396,16 +3565,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3413,13 +3582,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -3430,16 +3599,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3447,16 +3616,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3473,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3481,13 +3650,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -3498,16 +3667,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3515,13 +3684,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -3535,13 +3704,13 @@
         <v>4</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3549,16 +3718,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3566,16 +3735,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3583,13 +3752,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -3603,13 +3772,13 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3623,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -3637,10 +3806,10 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -3651,16 +3820,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3668,16 +3837,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3685,16 +3854,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3702,13 +3871,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -3719,16 +3888,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3742,10 +3911,10 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3753,16 +3922,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3770,13 +3939,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -3807,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3827,10 +3996,10 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3838,16 +4007,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>4</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3855,16 +4024,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3878,10 +4047,10 @@
         <v>4</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3889,16 +4058,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3906,16 +4075,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3923,16 +4092,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3940,13 +4109,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -3957,16 +4126,16 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3974,13 +4143,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -3991,16 +4160,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4011,10 +4180,10 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -4025,16 +4194,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4048,10 +4217,10 @@
         <v>4</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4062,13 +4231,13 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4079,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4093,7 +4262,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114">
         <v>4</v>
@@ -4110,16 +4279,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4127,16 +4296,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4147,13 +4316,13 @@
         <v>2</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4161,16 +4330,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4178,16 +4347,16 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4198,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>5</v>
@@ -4212,16 +4381,16 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4229,13 +4398,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -4246,16 +4415,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4263,13 +4432,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124">
         <v>4</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -4286,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>5</v>
@@ -4300,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -4320,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -4334,13 +4503,13 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4348,13 +4517,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>5</v>
@@ -4365,10 +4534,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -4388,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4402,13 +4571,13 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4416,16 +4585,16 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4433,16 +4602,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4453,13 +4622,13 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4467,16 +4636,16 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4484,16 +4653,16 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4507,7 +4676,7 @@
         <v>4</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -4518,16 +4687,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4535,16 +4704,16 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>4</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4552,7 +4721,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -4569,16 +4738,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4586,13 +4755,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>4</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -4603,16 +4772,16 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4620,16 +4789,16 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4637,10 +4806,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -4657,13 +4826,13 @@
         <v>2</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4671,16 +4840,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>4</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4688,16 +4857,16 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4705,10 +4874,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -4722,16 +4891,16 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4739,7 +4908,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C152">
         <v>4</v>
@@ -4756,16 +4925,16 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E153">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4773,13 +4942,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -4796,10 +4965,10 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4807,16 +4976,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156">
         <v>4</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4824,13 +4993,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>5</v>
@@ -4841,13 +5010,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E158">
         <v>4</v>
@@ -4858,16 +5027,16 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159">
         <v>4</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4875,7 +5044,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -4884,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="E160">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4892,13 +5061,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>4</v>
@@ -4909,16 +5078,16 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C162">
         <v>4</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4926,13 +5095,13 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E163">
         <v>4</v>
@@ -4960,16 +5129,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4977,7 +5146,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -4986,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4994,16 +5163,16 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D167">
         <v>1</v>
       </c>
       <c r="E167">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5011,16 +5180,16 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5045,13 +5214,13 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>5</v>
@@ -5062,13 +5231,13 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>5</v>
@@ -5079,16 +5248,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5096,16 +5265,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5116,13 +5285,13 @@
         <v>3</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5130,16 +5299,16 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5147,7 +5316,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C176">
         <v>4</v>
@@ -5156,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5164,16 +5333,16 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5181,13 +5350,13 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E178">
         <v>4</v>
@@ -5198,10 +5367,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -5215,16 +5384,16 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5232,16 +5401,16 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5249,16 +5418,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5275,7 +5444,7 @@
         <v>5</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5292,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5300,13 +5469,13 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C185">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -5317,7 +5486,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -5334,10 +5503,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -5351,7 +5520,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C188">
         <v>4</v>
@@ -5360,7 +5529,7 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5368,16 +5537,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>4</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5385,7 +5554,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>4</v>
@@ -5394,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5408,10 +5577,10 @@
         <v>2</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5419,16 +5588,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D192">
         <v>2</v>
       </c>
       <c r="E192">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5436,16 +5605,16 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5453,16 +5622,16 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5470,13 +5639,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E195">
         <v>5</v>
@@ -5487,7 +5656,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -5496,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="E196">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5504,16 +5673,16 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5521,13 +5690,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -5538,13 +5707,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>4</v>
@@ -5564,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5572,7 +5741,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -5581,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="E201">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5592,13 +5761,13 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D202">
         <v>1</v>
       </c>
       <c r="E202">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5606,16 +5775,16 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C203">
         <v>2</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5623,16 +5792,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5640,13 +5809,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -5657,16 +5826,16 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206">
         <v>4</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5674,7 +5843,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -5683,7 +5852,7 @@
         <v>2</v>
       </c>
       <c r="E207">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5691,16 +5860,16 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5708,16 +5877,16 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5725,16 +5894,16 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5745,13 +5914,13 @@
         <v>1</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5765,10 +5934,10 @@
         <v>2</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5776,16 +5945,16 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E213">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5796,13 +5965,13 @@
         <v>1</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5810,16 +5979,16 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5830,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>5</v>
@@ -5844,10 +6013,10 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -5867,10 +6036,10 @@
         <v>2</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5881,13 +6050,13 @@
         <v>1</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5895,13 +6064,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220">
         <v>4</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>4</v>
@@ -5912,7 +6081,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221">
         <v>2</v>
@@ -5921,7 +6090,7 @@
         <v>2</v>
       </c>
       <c r="E221">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5929,16 +6098,16 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5946,16 +6115,16 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5969,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>5</v>
@@ -5986,10 +6155,10 @@
         <v>4</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5997,16 +6166,16 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D226">
         <v>2</v>
       </c>
       <c r="E226">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6014,7 +6183,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -6023,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="E227">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6031,13 +6200,13 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E228">
         <v>4</v>
@@ -6048,16 +6217,16 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6065,7 +6234,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -6074,7 +6243,7 @@
         <v>2</v>
       </c>
       <c r="E230">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6091,7 +6260,7 @@
         <v>2</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6108,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="E232">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6119,13 +6288,13 @@
         <v>1</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6133,16 +6302,16 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6150,16 +6319,16 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6167,16 +6336,16 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6184,10 +6353,10 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D237">
         <v>2</v>
@@ -6201,16 +6370,16 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238">
         <v>4</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E238">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6221,10 +6390,10 @@
         <v>1</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -6244,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6252,10 +6421,10 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D241">
         <v>2</v>
@@ -6272,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D242">
         <v>2</v>
@@ -6286,16 +6455,16 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6303,16 +6472,16 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6320,16 +6489,16 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6337,13 +6506,13 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E246">
         <v>5</v>
@@ -6354,16 +6523,16 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E247">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6371,13 +6540,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -6388,16 +6557,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C249">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E249">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6405,13 +6574,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E250">
         <v>5</v>
@@ -6425,13 +6594,13 @@
         <v>1</v>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6439,16 +6608,16 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D252">
         <v>1</v>
       </c>
       <c r="E252">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6456,13 +6625,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C253">
         <v>2</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E253">
         <v>5</v>
@@ -6473,13 +6642,13 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C254">
         <v>4</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254">
         <v>5</v>
@@ -6490,16 +6659,16 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6507,16 +6676,16 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C256">
         <v>2</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6547,10 +6716,10 @@
         <v>4</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6561,10 +6730,10 @@
         <v>1</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259">
         <v>4</v>
@@ -6575,16 +6744,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6592,13 +6761,13 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E261">
         <v>4</v>
@@ -6615,10 +6784,10 @@
         <v>2</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6629,13 +6798,13 @@
         <v>2</v>
       </c>
       <c r="C263">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6649,10 +6818,10 @@
         <v>4</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6660,16 +6829,16 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C265">
         <v>2</v>
       </c>
       <c r="D265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6683,10 +6852,10 @@
         <v>4</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E266">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6697,10 +6866,10 @@
         <v>2</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>5</v>
@@ -6711,7 +6880,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268">
         <v>2</v>
@@ -6728,7 +6897,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -6737,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="E269">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6745,16 +6914,16 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270">
         <v>4</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6768,10 +6937,10 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6785,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E272">
         <v>5</v>
@@ -6796,16 +6965,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6819,10 +6988,10 @@
         <v>4</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E274">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6830,10 +6999,10 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -6853,7 +7022,7 @@
         <v>4</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E276">
         <v>5</v>
@@ -6864,16 +7033,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C277">
         <v>4</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E277">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6884,13 +7053,13 @@
         <v>2</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6898,16 +7067,16 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C279">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E279">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6918,10 +7087,10 @@
         <v>2</v>
       </c>
       <c r="C280">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -6932,13 +7101,13 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C281">
         <v>4</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E281">
         <v>5</v>
@@ -6949,16 +7118,16 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D282">
         <v>1</v>
       </c>
       <c r="E282">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6969,13 +7138,13 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E283">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6983,13 +7152,13 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E284">
         <v>4</v>
@@ -7000,16 +7169,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D285">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E285">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7020,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="C286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D286">
         <v>1</v>
@@ -7034,13 +7203,13 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C287">
         <v>2</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E287">
         <v>5</v>
@@ -7051,13 +7220,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C288">
         <v>2</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -7068,16 +7237,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C289">
         <v>4</v>
       </c>
       <c r="D289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E289">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7085,16 +7254,16 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C290">
         <v>2</v>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E290">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7102,13 +7271,13 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E291">
         <v>4</v>
@@ -7119,16 +7288,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E292">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7136,16 +7305,16 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D293">
         <v>2</v>
       </c>
       <c r="E293">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7153,16 +7322,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C294">
         <v>4</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E294">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7173,13 +7342,13 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D295">
         <v>1</v>
       </c>
       <c r="E295">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7190,13 +7359,13 @@
         <v>1</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E296">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7204,16 +7373,16 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D297">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E297">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7230,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="E298">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7238,13 +7407,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C299">
         <v>4</v>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E299">
         <v>4</v>
@@ -7255,16 +7424,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E300">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7289,16 +7458,16 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C302">
         <v>4</v>
       </c>
       <c r="D302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E302">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7306,16 +7475,16 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E303">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7323,13 +7492,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C304">
         <v>4</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E304">
         <v>5</v>
@@ -7343,7 +7512,7 @@
         <v>2</v>
       </c>
       <c r="C305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D305">
         <v>3</v>
@@ -7357,16 +7526,16 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C306">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D306">
         <v>1</v>
       </c>
       <c r="E306">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7377,10 +7546,10 @@
         <v>2</v>
       </c>
       <c r="C307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E307">
         <v>4</v>
@@ -7391,16 +7560,16 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C308">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E308">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7408,13 +7577,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C309">
         <v>4</v>
       </c>
       <c r="D309">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E309">
         <v>5</v>
@@ -7431,10 +7600,10 @@
         <v>4</v>
       </c>
       <c r="D310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E310">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7442,10 +7611,10 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C311">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D311">
         <v>2</v>
@@ -7459,7 +7628,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C312">
         <v>4</v>
@@ -7493,10 +7662,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D314">
         <v>2</v>
@@ -7510,16 +7679,16 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E315">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7530,13 +7699,13 @@
         <v>2</v>
       </c>
       <c r="C316">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E316">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7544,13 +7713,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C317">
         <v>4</v>
       </c>
       <c r="D317">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E317">
         <v>5</v>
@@ -7561,13 +7730,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C318">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D318">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -7578,13 +7747,13 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C319">
         <v>4</v>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E319">
         <v>5</v>
@@ -7595,13 +7764,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C320">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E320">
         <v>4</v>
@@ -7612,13 +7781,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C321">
         <v>2</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E321">
         <v>5</v>
@@ -7629,16 +7798,16 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C322">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E322">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7649,13 +7818,13 @@
         <v>4</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E323">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7666,13 +7835,13 @@
         <v>1</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E324">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7689,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="E325">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7697,16 +7866,16 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C326">
         <v>2</v>
       </c>
       <c r="D326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E326">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7714,13 +7883,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C327">
         <v>2</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E327">
         <v>5</v>
@@ -7731,16 +7900,16 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328">
         <v>2</v>
       </c>
       <c r="D328">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E328">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7748,16 +7917,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D329">
         <v>2</v>
       </c>
       <c r="E329">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7765,16 +7934,16 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D330">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E330">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7788,10 +7957,10 @@
         <v>2</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E331">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7805,7 +7974,7 @@
         <v>4</v>
       </c>
       <c r="D332">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E332">
         <v>4</v>
@@ -7816,16 +7985,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C333">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D333">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E333">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7836,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="C334">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E334">
         <v>4</v>
@@ -7850,13 +8019,13 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C335">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D335">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E335">
         <v>5</v>
@@ -7867,16 +8036,16 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C336">
         <v>4</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E336">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7884,16 +8053,16 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C337">
         <v>2</v>
       </c>
       <c r="D337">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E337">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7901,16 +8070,16 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D338">
         <v>2</v>
       </c>
       <c r="E338">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7918,16 +8087,16 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D339">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7935,16 +8104,16 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C340">
         <v>4</v>
       </c>
       <c r="D340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E340">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7969,16 +8138,16 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C342">
         <v>4</v>
       </c>
       <c r="D342">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E342">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7986,16 +8155,16 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C343">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D343">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E343">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8003,13 +8172,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C344">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D344">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E344">
         <v>5</v>
@@ -8026,7 +8195,7 @@
         <v>4</v>
       </c>
       <c r="D345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E345">
         <v>5</v>
@@ -8037,16 +8206,16 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D346">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E346">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8060,10 +8229,10 @@
         <v>4</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E347">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8071,16 +8240,16 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C348">
         <v>4</v>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E348">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8088,16 +8257,16 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C349">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D349">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E349">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8105,16 +8274,16 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C350">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D350">
         <v>4</v>
       </c>
       <c r="E350">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8128,10 +8297,10 @@
         <v>2</v>
       </c>
       <c r="D351">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E351">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8142,7 +8311,7 @@
         <v>2</v>
       </c>
       <c r="C352">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D352">
         <v>5</v>
@@ -8156,7 +8325,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C353">
         <v>4</v>
@@ -8165,7 +8334,7 @@
         <v>2</v>
       </c>
       <c r="E353">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8173,16 +8342,16 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C354">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D354">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E354">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8190,13 +8359,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C355">
         <v>4</v>
       </c>
       <c r="D355">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E355">
         <v>5</v>
@@ -8210,10 +8379,10 @@
         <v>1</v>
       </c>
       <c r="C356">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E356">
         <v>5</v>
@@ -8224,16 +8393,16 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C357">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D357">
         <v>2</v>
       </c>
       <c r="E357">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8244,13 +8413,13 @@
         <v>1</v>
       </c>
       <c r="C358">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E358">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8261,13 +8430,13 @@
         <v>1</v>
       </c>
       <c r="C359">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D359">
         <v>2</v>
       </c>
       <c r="E359">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8281,10 +8450,10 @@
         <v>4</v>
       </c>
       <c r="D360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8292,13 +8461,13 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C361">
         <v>4</v>
       </c>
       <c r="D361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E361">
         <v>5</v>
@@ -8309,13 +8478,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C362">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D362">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E362">
         <v>5</v>
@@ -8326,13 +8495,13 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C363">
         <v>4</v>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E363">
         <v>5</v>
@@ -8343,7 +8512,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C364">
         <v>4</v>
@@ -8352,7 +8521,7 @@
         <v>2</v>
       </c>
       <c r="E364">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8360,16 +8529,16 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C365">
         <v>2</v>
       </c>
       <c r="D365">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E365">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8377,16 +8546,16 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C366">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E366">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8397,10 +8566,10 @@
         <v>4</v>
       </c>
       <c r="C367">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D367">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E367">
         <v>4</v>
@@ -8417,7 +8586,7 @@
         <v>2</v>
       </c>
       <c r="D368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E368">
         <v>5</v>
@@ -8434,10 +8603,10 @@
         <v>4</v>
       </c>
       <c r="D369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E369">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -8445,7 +8614,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C370">
         <v>2</v>
@@ -8462,16 +8631,16 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C371">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D371">
         <v>2</v>
       </c>
       <c r="E371">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -8479,7 +8648,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C372">
         <v>2</v>
@@ -8488,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="E372">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -8496,10 +8665,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C373">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D373">
         <v>2</v>
@@ -8513,16 +8682,16 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C374">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D374">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E374">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8530,13 +8699,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C375">
         <v>2</v>
       </c>
       <c r="D375">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E375">
         <v>5</v>
@@ -8547,16 +8716,16 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C376">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D376">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E376">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8567,13 +8736,13 @@
         <v>5</v>
       </c>
       <c r="C377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D377">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E377">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8581,13 +8750,13 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C378">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E378">
         <v>4</v>
@@ -8598,16 +8767,16 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C379">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E379">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -8615,16 +8784,16 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E380">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8635,13 +8804,13 @@
         <v>2</v>
       </c>
       <c r="C381">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E381">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8649,13 +8818,13 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C382">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D382">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E382">
         <v>5</v>
@@ -8666,13 +8835,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C383">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D383">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E383">
         <v>5</v>
@@ -8683,7 +8852,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C384">
         <v>4</v>
@@ -8692,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="E384">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8700,16 +8869,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C385">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D385">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E385">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8717,16 +8886,16 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C386">
         <v>4</v>
       </c>
       <c r="D386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E386">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8734,16 +8903,16 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C387">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D387">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E387">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8751,13 +8920,13 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C388">
         <v>2</v>
       </c>
       <c r="D388">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E388">
         <v>5</v>
@@ -8768,13 +8937,13 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C389">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D389">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E389">
         <v>5</v>
@@ -8785,16 +8954,16 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C390">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D390">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E390">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8802,15 +8971,967 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392">
+        <v>4</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>4</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>4</v>
+      </c>
+      <c r="E396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+      <c r="D397">
+        <v>4</v>
+      </c>
+      <c r="E397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>5</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>5</v>
+      </c>
+      <c r="E399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>5</v>
+      </c>
+      <c r="E400">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>4</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+      <c r="E402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>4</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>4</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+      <c r="E404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>4</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+      <c r="E405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>4</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>4</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>4</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+      <c r="E408">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>4</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>4</v>
+      </c>
+      <c r="D410">
+        <v>3</v>
+      </c>
+      <c r="E410">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>4</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+      <c r="E411">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>4</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>4</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>4</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414">
+        <v>3</v>
+      </c>
+      <c r="E414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>4</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+      <c r="D415">
+        <v>5</v>
+      </c>
+      <c r="E415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>4</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417">
+        <v>5</v>
+      </c>
+      <c r="E417">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>4</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+      <c r="E419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>3</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+      <c r="E420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421">
+        <v>4</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>5</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422">
+        <v>3</v>
+      </c>
+      <c r="E422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>3</v>
+      </c>
+      <c r="C423">
+        <v>4</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+      <c r="E423">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>4</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426">
+        <v>5</v>
+      </c>
+      <c r="E426">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>5</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427">
+        <v>5</v>
+      </c>
+      <c r="E427">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>5</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>4</v>
+      </c>
+      <c r="E428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>2</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>2</v>
+      </c>
+      <c r="C431">
+        <v>4</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>2</v>
+      </c>
+      <c r="C432">
+        <v>4</v>
+      </c>
+      <c r="D432">
+        <v>2</v>
+      </c>
+      <c r="E432">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>2</v>
+      </c>
+      <c r="C433">
+        <v>4</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>4</v>
+      </c>
+      <c r="C434">
+        <v>4</v>
+      </c>
+      <c r="D434">
+        <v>4</v>
+      </c>
+      <c r="E434">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>2</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>5</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436">
+        <v>5</v>
+      </c>
+      <c r="E436">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>4</v>
+      </c>
+      <c r="C437">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <v>4</v>
+      </c>
+      <c r="E437">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>5</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+      <c r="D438">
+        <v>5</v>
+      </c>
+      <c r="E438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439">
+        <v>4</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>5</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440">
+        <v>5</v>
+      </c>
+      <c r="E440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>3</v>
+      </c>
+      <c r="C441">
+        <v>4</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>4</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+      <c r="E442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>4</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443">
+        <v>5</v>
+      </c>
+      <c r="E443">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444">
+        <v>2</v>
+      </c>
+      <c r="E444">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>4</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446">
+        <v>4</v>
+      </c>
+      <c r="E446">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>2</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
         <v>5</v>
       </c>
     </row>
